--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,14 +1601,964 @@
           <t>비웃다, 조소하다</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>20230221</t>
-        </is>
+      <c r="D47" t="n">
+        <v>20230221</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>21시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>furnish</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>충족시키다</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>공급하다</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>behold</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>형성하다, 수정하다</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>보다, 바라보다</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>expend</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>초과하다</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>소비하다</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>elapse</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>퍼지다</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>경과하다</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>meditate</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>금지하다</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>명상하다</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>assent</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>반대하다</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>동의하다</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>furnish</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>저버리다, 버리다</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>공급하다</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>encroach</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>설득하다</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>침해하다</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>omit</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>행사하다, 발휘하다</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>생략하다</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>captivate</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>항행하다, 조종하다</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>매혹하다</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>reckon</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>개정하다, 수정하다</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>생각하다, 간주하다</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>deride</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>속하다</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>비웃다, 조소하다</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>contribute</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>고백하다</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>기여하다</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>beware</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>생각하다, 간주하다</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>조심하다</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>confine</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>자격을 부여하다</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>제한하다</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>relieve</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>후퇴하다</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>구원하다, 덜다</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>violate</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>모욕하다</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>위반하다</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>stammer</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>영감을 주다, 고무하다</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>말을 더듬다</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>devote</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>획득하다</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>헌신하다</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>assure</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>능가하다</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>확신하다, 보증하다</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>beckon</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>흡수하다</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>손짓으로 부르다</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>lament</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>속이다, 미혹 시키다</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>슬퍼하다</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>proclaim</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>장식하다</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>포고[선언]하다</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>dissuade</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>확신하다</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>단념시키다</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>22시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>loaf</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>제지하다</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>빈둥거리다</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>22시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>preach</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>고생하다</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>설교하다</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>22시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>shiver</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>번창하다, 번영하다</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>떨다</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>22시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>flourish</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>정복하다</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>번영하다</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>prevent</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>경과하다</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>못하게 하다, 예방하다</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>22시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>inflict</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>충족시키다</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>충격을 가하다</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>22시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>횡단하다, 가로지르다</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>물러나다, 철수하다</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>22시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>stammer</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>우세하다, 만연하다</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>말을 더듬다</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>22시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>preach</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>달래다, 위로하다</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>설교하다</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>relieve</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>상속하다, 물려받다</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>구원하다, 덜다</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>beckon</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>달성하다, 도달하다</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>손짓으로 부르다</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>impute</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>능가하다</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>탓으로 돌리다</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>22시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>proclaim</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>단념시키다</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>포고[선언]하다</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>22시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>lament</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>확인하다, 확증하다</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>슬퍼하다</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>20230223</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>22시 22분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,14 +2551,2410 @@
           <t>슬퍼하다</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>20230223</t>
-        </is>
+      <c r="D85" t="n">
+        <v>20230223</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>22시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>apathetic</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>연상시키는</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>냉담한, 무관심한</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>16시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>letharagy</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>찬사</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>무기력</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>16시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>adorable</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>사적인</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>귀여운</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>16시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>railing</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>전형적인</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>매도하는, 욕설하는</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>16시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>fierce</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>익명의</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>격렬한</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>16시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>utter</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>성급한, 충동적인</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>순전한</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>16시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>precipitate</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>긁어모으다</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>촉진하다</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>16시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>경범죄</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>misbehavior</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>misdemenor</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>16시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>senator</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>호사가</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>상원의원</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>16시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>reimburse</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>제기하다</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>변상하다, 상환하다</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>16시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>경시하다, 폄하하다</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>모으다</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>16시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>as such</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>그 자체로, 본질적으로</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>그렇기 때문에, 그러함에 따라</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>16시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>contentmens</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>예비, 준비(적립)금</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>만족</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>16시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>누그러지다</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>let down</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>let up</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>16시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ransack</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>회피하다, 교묘히 피하다, 손을 빼다</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>샅샅이 뒤지다</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>16시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>precarious</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>다정한</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>불안정한, 위험한</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>16시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>advocate</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>계획하다, 음모를 꾸미다</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>옹호하다, 주장하다</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>16시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>털어놓다</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>let on</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>16시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>letharagy</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>사치, 하고 싶은 대로 하는 것</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>무기력</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>16시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>crack down to</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>가라앉히다</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>탄압하다</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>16시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>attraction</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>유인책, 장려책</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>명물, 명소</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>16시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>whet</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>헐뜯다</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>(칼 등을)갈다, (식욕 등을)자극하다, 돋우다</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>16시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>distilled</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>가장된</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>증류된</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>16시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>scour</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>기뻐하다, 즐겁게 하다</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>샅샅이 뒤지다</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>16시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>malicious</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>해로운</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>악의 있는, 심술궂은</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>16시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>concoct</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>이용하다</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>만들다, 지어내다</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>16시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>seemingly</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>그렇기 때문에, 그러함에 따라</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>외관상, 겉보기에</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>16시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>at the drop of a hat</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>주장하건대, 거의 틀림없이</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>즉시</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>16시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>경범죄</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>misbehavior</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>misdemenor</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>16시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>verdict</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>부랑자</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>판결, 평결</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>16시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>verdict</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>무관심</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>판결, 평결</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>16시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>make do with</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>경의를 표하다</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>임시변통하다</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>16시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>tractable</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>가식 없는</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>유순한</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>16시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>conglomerate</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>실용주의자</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>집단, 복합체, 복합 기업</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>16시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>seemingly</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>보란 듯이</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>외관상, 겉보기에</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>16시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>predecessor</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>(사랑의) 열병</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>전임자</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>16시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>levy</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>비방하다, 명예를 훼손하다</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>부과하다, 징수하다</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>16시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>delecatable</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>연상시키는</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>유쾌한</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>17시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>allay</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>묵인하다</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>가라앉히다</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>17시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>disseminate</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>샅샅이 뒤지다</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>보급하다, 퍼뜨리다</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>17시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>allay</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>구속하다, 속박하다</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>가라앉히다</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>17시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>docility</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>계층</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>온순</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>17시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>predisposition</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>무질서, 혼란</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>경향, 성질</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>17시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>commotion</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>더럽힘, 명예훼손, 폄하</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>소란, 소동</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>17시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>prosperous</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>유쾌한</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>번영하는</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>17시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>분해되다</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>깨지다, 갈라지다, 관계를 끊다</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>17시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>refractory</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>여분의</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>다루기 힘든</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>17시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>imprudent</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>부족한</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>경솔한</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>17시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>clamor</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>확신시키다</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>떠들어대다, 요구하다</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>17시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>advent</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>일치, 합치</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>등장, 도래, 출현</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>17시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>mettlesome</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>틀릴 수 없는</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>기운찬, 위세 있는</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>17시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>quixotic</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>뻔뻔스러운, 철면피의</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>비실제적인</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>17시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>squat</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>납치하다</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>불법 거주하다: 쪼그리고 앉다</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>17시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>scrupulous</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>가장된</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>면밀한, 양심적인</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>17시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>cloy</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>구금하다</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>질리다, 물리다, 싫증나다</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>17시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>spurious</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>면밀한, 양심적인</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>가짜의, 위조의, 겉치레의</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>17시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>conceive</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>개선하다, 좋아지다</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>생각하다</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>17시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>일탈, 일선</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>decency</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>deviation</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>17시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>invigorate</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>아주 기쁘게 하다, 유쾌하게 하다</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>기운나게 하다, 활기를 돋우다</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>17시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>perverse</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>침울한</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>비뚤어진</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>17시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>captivate</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>착취하다</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>매혹하다, 마음을 사로잡다</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>17시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>disseminate</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>경시하다, 폄하하다</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>보급하다, 퍼뜨리다</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>17시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>disseminate</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>혼란에 빠뜨리다</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>보급하다, 퍼뜨리다</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>12시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>omnivorous</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>면밀한, 양심적인</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>잡식성의</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>12시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>boastfully</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>즉시</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>보란 듯이</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>낄낄 웃음</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>giggle</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>chuckle</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>derisive</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>악의 있는, 심술궂은</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>조롱하는</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>~에서 쫓아내다</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>turn out</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>turn out of</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>12시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>unremarkable</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>다루기 힘든, 말을 듣지 않는, 고집센</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>평범한</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>12시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>verdict</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>결핍</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>판결, 평결</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ingenuity</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>소란, 소동</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>창의력</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>12시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>verdict</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>경향, 성질</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>판결, 평결</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>12시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>obsess</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>~에 의지하다, 기대다</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>(종종 수동태)~에 사로잡히다</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>12시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>attenuate</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>순응하다, 준수하다</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>약화시키다</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>12시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>attenuate</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>변상하다, 상환하다</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>약화시키다</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>12시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>trade on</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>자금을 공급하다</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>~을 이용하다</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>13시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>털어놓다</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>let off</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>let on</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>13시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>refractory</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>빠른, 날렵한, 민첩한, 영리한</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>다루기 힘든</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>13시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>manifest</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>전멸시키다</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>명백히 하다, 명시하다</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>13시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>apogee</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>독특함</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>정점</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>13시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>apogee</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>가해자</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>정점</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>13시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>bolster</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>이용하다</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>강화하다</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>weasel out of</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>달래다, 평화를 가져오다</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>회피하다, 교묘히 피하다, 손을 빼다</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>13시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>weasel out of</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>설명하다, 밝히다</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>회피하다, 교묘히 피하다, 손을 빼다</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>13시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>면하게 하다</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>let up</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>let off</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>13시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>perplexed</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>포괄적인</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>당황한</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>13시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>sobriety</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>예비, 준비(적립)금</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>맨정신, 냉정, 절주, 절제</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>13시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>interrogate</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>의견을 같이하다</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>심문하다</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>13시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>인계받다</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>take after</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>take over</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>13시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>refractory</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>긍정적인, 단정적인</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>다루기 힘든</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>13시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>penal</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>복종하는, 순종적인</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>징계의, 규율의</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>13시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>virulency</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>비난</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>독성</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>13시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>annul</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>매혹하다, 마음을 사로잡다</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>무효로 하다, 취소하다</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>13시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>officious</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>두서없는, 산만한</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>참견하는</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>13시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>wangle</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>비밀 등을 털어 놓다</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>얻어내다</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>13시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>impugnment</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>부랑자</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>비난, 공격</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>20230406</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>13시 34분</t>
         </is>
       </c>
     </row>
